--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2827.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2827.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17427249778888</v>
+        <v>1.068178653717041</v>
       </c>
       <c r="B1">
-        <v>2.440747582726455</v>
+        <v>2.427021265029907</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.110594272613525</v>
       </c>
       <c r="D1">
-        <v>2.361831674584886</v>
+        <v>2.286472320556641</v>
       </c>
       <c r="E1">
-        <v>1.235676509130029</v>
+        <v>1.304511547088623</v>
       </c>
     </row>
   </sheetData>
